--- a/test/gods.xlsx
+++ b/test/gods.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\var\projects\excelmapping\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\var\projects\toolchain_utils\excelmapping\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800E0D6D-7498-4633-9081-847FFC3D3C44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA84D770-06E4-4F12-858E-1772F2EFE3BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{FBC2C960-0D13-4126-86FD-8D292DC8C91C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{FBC2C960-0D13-4126-86FD-8D292DC8C91C}"/>
   </bookViews>
   <sheets>
     <sheet name="Gods in English" sheetId="2" r:id="rId1"/>
     <sheet name="Gods in Greek" sheetId="1" r:id="rId2"/>
-    <sheet name="Custom Range Not Needed" sheetId="3" r:id="rId3"/>
-    <sheet name="RangeFrom Needed" sheetId="4" r:id="rId4"/>
+    <sheet name="Gods power" sheetId="5" r:id="rId3"/>
+    <sheet name="RangeFrom not needed" sheetId="3" r:id="rId4"/>
+    <sheet name="RangeFrom needed" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="52">
   <si>
     <t>Aphrodite</t>
   </si>
@@ -147,18 +148,72 @@
   </si>
   <si>
     <t>force need of range</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>hunting</t>
+  </si>
+  <si>
+    <t>wisdom</t>
+  </si>
+  <si>
+    <t>earth</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>marriage</t>
+  </si>
+  <si>
+    <t>telecom</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>sea</t>
+  </si>
+  <si>
+    <t>sky</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -182,8 +237,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,7 +557,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -640,7 +696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0FC3145-4620-486E-B37A-2066DD5DE235}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -777,6 +833,146 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD89C4E-95FE-413D-A28B-620688CF2B08}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9C178E-FFC8-4A9C-A9F4-93B700652876}">
   <dimension ref="D4:E18"/>
   <sheetViews>
@@ -911,12 +1107,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B4E37A-425E-4737-9A94-B3EB77D14DC3}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -944,23 +1140,23 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
         <v>28</v>
@@ -968,7 +1164,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
@@ -976,74 +1172,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
